--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019846_Event_28.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019846_Event_28.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +520,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
         </is>
       </c>
     </row>
@@ -453,10 +579,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75.23475892593315</v>
+        <v>73.7105350854205</v>
       </c>
       <c r="C2" t="n">
-        <v>80.34773873139872</v>
+        <v>73.7105350854205</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-40.82253370834844</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.231099210582864</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01949742570039892</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.008680325850951283</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80.46383431565162</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80.46383431565162</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-37.78668649931432</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.74154768461913</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0333419564194907</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01941497999791218</v>
       </c>
     </row>
     <row r="3">
@@ -464,2219 +620,2103 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>75.39482842799052</v>
-      </c>
-      <c r="C3" t="n">
-        <v>79.59643084627319</v>
-      </c>
+        <v>75.23475892593315</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>80.34773873139872</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>78.5600488172546</v>
-      </c>
-      <c r="C4" t="n">
-        <v>79.60241484674042</v>
-      </c>
+        <v>75.39482842799052</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>79.59643084627319</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>78.80125488094487</v>
-      </c>
-      <c r="C5" t="n">
-        <v>79.6856352587303</v>
-      </c>
+        <v>78.5600488172546</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>79.60241484674042</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79.93669648561749</v>
-      </c>
-      <c r="C6" t="n">
-        <v>79.64856098348733</v>
-      </c>
+        <v>78.80125488094487</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>79.6856352587303</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80.17288720627813</v>
-      </c>
-      <c r="C7" t="n">
-        <v>79.56836863738144</v>
-      </c>
+        <v>79.93669648561749</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>79.64856098348733</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82.49978644745826</v>
-      </c>
-      <c r="C8" t="n">
-        <v>79.57711324290436</v>
-      </c>
+        <v>80.17288720627813</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>79.56836863738144</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82.70352022175116</v>
-      </c>
-      <c r="C9" t="n">
-        <v>79.31561721729955</v>
-      </c>
+        <v>82.49978644745826</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>79.57711324290436</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84.43902387209764</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79.30982962120197</v>
-      </c>
+        <v>82.70352022175116</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>79.31561721729955</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84.40954955678866</v>
-      </c>
-      <c r="C11" t="n">
-        <v>79.32024323373085</v>
-      </c>
+        <v>84.43902387209764</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>79.30982962120197</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.80298725502149</v>
-      </c>
-      <c r="C12" t="n">
-        <v>79.30471527117172</v>
-      </c>
+        <v>84.40954955678866</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>79.32024323373085</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84.79555085769844</v>
-      </c>
-      <c r="C13" t="n">
-        <v>78.74014664617202</v>
-      </c>
+        <v>84.80298725502149</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>79.30471527117172</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>85.9461503832614</v>
-      </c>
-      <c r="C14" t="n">
-        <v>78.61949995066989</v>
-      </c>
+        <v>84.79555085769844</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>78.74014664617202</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>85.74176395619844</v>
-      </c>
-      <c r="C15" t="n">
-        <v>77.49936247440084</v>
-      </c>
+        <v>85.9461503832614</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>78.61949995066989</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84.50886438066082</v>
-      </c>
-      <c r="C16" t="n">
-        <v>77.46896717236822</v>
-      </c>
+        <v>85.74176395619844</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>77.49936247440084</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>84.61267879947343</v>
-      </c>
-      <c r="C17" t="n">
-        <v>76.29815430487571</v>
-      </c>
+        <v>84.50886438066082</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>77.46896717236822</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83.78938331794623</v>
-      </c>
-      <c r="C18" t="n">
-        <v>76.21286969568929</v>
-      </c>
+        <v>84.61267879947343</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>76.29815430487571</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83.54340750195847</v>
-      </c>
-      <c r="C19" t="n">
-        <v>73.92666533004098</v>
-      </c>
+        <v>83.78938331794623</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>76.21286969568929</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>80.70782991532822</v>
-      </c>
-      <c r="C20" t="n">
-        <v>73.88272567276961</v>
-      </c>
+        <v>83.54340750195847</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>73.92666533004098</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>80.57269478316317</v>
-      </c>
-      <c r="C21" t="n">
-        <v>71.27072576532703</v>
-      </c>
+        <v>80.70782991532822</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>73.88272567276961</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.66441348153656</v>
-      </c>
-      <c r="C22" t="n">
-        <v>71.22867996364215</v>
-      </c>
+        <v>80.57269478316317</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>71.27072576532703</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76.53802446261939</v>
-      </c>
-      <c r="C23" t="n">
-        <v>68.00540258663818</v>
-      </c>
+        <v>76.66441348153656</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>71.22867996364215</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>72.06448288646234</v>
-      </c>
-      <c r="C24" t="n">
-        <v>67.93669339744908</v>
-      </c>
+        <v>76.53802446261939</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>68.00540258663818</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>71.48021010749996</v>
-      </c>
-      <c r="C25" t="n">
-        <v>64.51703236361492</v>
-      </c>
+        <v>72.06448288646234</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>67.93669339744908</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.47325051344745</v>
-      </c>
-      <c r="C26" t="n">
-        <v>64.23560585507065</v>
-      </c>
+        <v>71.48021010749996</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>64.51703236361492</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.42471708458834</v>
-      </c>
-      <c r="C27" t="n">
-        <v>59.60745300815751</v>
-      </c>
+        <v>66.47325051344745</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>64.23560585507065</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.6520513354123</v>
-      </c>
-      <c r="C28" t="n">
-        <v>59.58002807064478</v>
-      </c>
+        <v>66.42471708458834</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>59.60745300815751</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61.56209508081106</v>
-      </c>
-      <c r="C29" t="n">
-        <v>55.02696272543304</v>
-      </c>
+        <v>61.6520513354123</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>59.58002807064478</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>56.39186881691914</v>
-      </c>
-      <c r="C30" t="n">
-        <v>54.84664605704557</v>
-      </c>
+        <v>61.56209508081106</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>55.02696272543304</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>56.22522447538099</v>
-      </c>
-      <c r="C31" t="n">
-        <v>50.48606249612791</v>
-      </c>
+        <v>56.39186881691914</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>54.84664605704557</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.68167522154128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>50.36010137676755</v>
-      </c>
+        <v>56.22522447538099</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>50.48606249612791</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>50.42698507033221</v>
-      </c>
-      <c r="C33" t="n">
-        <v>46.11581582329588</v>
-      </c>
+        <v>50.68167522154128</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>50.36010137676755</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45.39746273268838</v>
-      </c>
-      <c r="C34" t="n">
-        <v>45.93467119298703</v>
-      </c>
+        <v>50.42698507033221</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>46.11581582329588</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45.35382123721443</v>
-      </c>
-      <c r="C35" t="n">
-        <v>42.61598853225509</v>
-      </c>
+        <v>45.39746273268838</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>45.93467119298703</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>41.42913629209094</v>
-      </c>
-      <c r="C36" t="n">
-        <v>42.54945617878231</v>
-      </c>
+        <v>45.35382123721443</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>42.61598853225509</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>41.30626769658044</v>
-      </c>
-      <c r="C37" t="n">
-        <v>38.23059553739007</v>
-      </c>
+        <v>41.42913629209094</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>42.54945617878231</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.95147730024752</v>
-      </c>
-      <c r="C38" t="n">
-        <v>38.16624707458953</v>
-      </c>
+        <v>41.30626769658044</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>38.23059553739007</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35.85978682552496</v>
-      </c>
-      <c r="C39" t="n">
-        <v>35.08807097656496</v>
-      </c>
+        <v>35.95147730024752</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>38.16624707458953</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.55979138739022</v>
-      </c>
-      <c r="C40" t="n">
-        <v>35.01819923672115</v>
-      </c>
+        <v>35.85978682552496</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>35.08807097656496</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>31.56222055792044</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.46710975609981</v>
-      </c>
+        <v>30.55979138739022</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>35.01819923672115</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>26.90834055965564</v>
-      </c>
-      <c r="C42" t="n">
-        <v>31.37490779821634</v>
-      </c>
+        <v>31.56222055792044</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>31.46710975609981</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.15311851924465</v>
-      </c>
-      <c r="C43" t="n">
-        <v>27.42110992186626</v>
-      </c>
+        <v>26.90834055965564</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>31.37490779821634</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22.9469784160531</v>
-      </c>
-      <c r="C44" t="n">
-        <v>27.28920371171285</v>
-      </c>
+        <v>27.15311851924465</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>27.42110992186626</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.03585000592462</v>
-      </c>
-      <c r="C45" t="n">
-        <v>23.36814395990046</v>
-      </c>
+        <v>22.9469784160531</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>27.28920371171285</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.85280001269463</v>
-      </c>
-      <c r="C46" t="n">
-        <v>23.312374636667</v>
-      </c>
+        <v>23.03585000592462</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>23.36814395990046</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.81229207497146</v>
-      </c>
-      <c r="C47" t="n">
-        <v>19.00557025140585</v>
-      </c>
+        <v>18.85280001269463</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>23.312374636667</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13.97859150838059</v>
-      </c>
-      <c r="C48" t="n">
-        <v>19.0366494980133</v>
-      </c>
+        <v>18.81229207497146</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>19.00557025140585</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.88807812612404</v>
-      </c>
-      <c r="C49" t="n">
-        <v>15.08693196075093</v>
-      </c>
+        <v>13.97859150838059</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>19.0366494980133</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.172829152397695</v>
-      </c>
-      <c r="C50" t="n">
-        <v>15.10108340606866</v>
-      </c>
+        <v>13.88807812612404</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>15.08693196075093</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.231099210582864</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9.74154768461913</v>
-      </c>
+        <v>9.172829152397695</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>15.10108340606866</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.581626517021187</v>
-      </c>
-      <c r="C52" t="n">
-        <v>9.597602237334106</v>
-      </c>
+        <v>9.231099210582864</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>9.74154768461913</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.510590030312715</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.656612403490793</v>
-      </c>
+        <v>5.581626517021187</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>9.597602237334106</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4107134538045265</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.679903850621487</v>
-      </c>
+        <v>5.510590030312715</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>4.656612403490793</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6487681941685495</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1942664002191815</v>
-      </c>
+        <v>0.4107134538045265</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>4.679903850621487</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.260515317553186</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.2005451410644626</v>
-      </c>
+        <v>0.6487681941685495</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0.1942664002191815</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.266329038991708</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-4.949058755921274</v>
-      </c>
+        <v>-5.260515317553186</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>0.2005451410644626</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-10.76478843108629</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-4.94995947159494</v>
-      </c>
+        <v>-5.266329038991708</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>-4.949058755921274</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-10.77596503349187</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-9.467494205416822</v>
-      </c>
+        <v>-10.76478843108629</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-4.94995947159494</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-15.77182562771202</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-9.483871954705275</v>
-      </c>
+        <v>-10.77596503349187</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>-9.467494205416822</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-15.92399767186052</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-14.08273050971659</v>
-      </c>
+        <v>-15.77182562771202</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-9.483871954705275</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-21.66721417765151</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-14.07552799759391</v>
-      </c>
+        <v>-15.92399767186052</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>-14.08273050971659</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-21.68108902477125</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-19.08311666244171</v>
-      </c>
+        <v>-21.66721417765151</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-14.07552799759391</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-27.3540646578759</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-19.09497727070666</v>
-      </c>
+        <v>-21.68108902477125</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-19.08311666244171</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-27.3746216054655</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-23.3512125928488</v>
-      </c>
+        <v>-27.3540646578759</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>-19.09497727070666</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-31.14716035479095</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-23.31141804530699</v>
-      </c>
+        <v>-27.3746216054655</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>-23.3512125928488</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-31.15646946466666</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-26.68909331150558</v>
-      </c>
+        <v>-31.14716035479095</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-23.31141804530699</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-33.86231814082753</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-26.74990586066215</v>
-      </c>
+        <v>-31.15646946466666</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-26.68909331150558</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-33.83086278314636</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-30.01298963443089</v>
-      </c>
+        <v>-33.86231814082753</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>-26.74990586066215</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-35.99428633516111</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-29.90654464361041</v>
-      </c>
+        <v>-33.83086278314636</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-30.01298963443089</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-35.78991437289754</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-32.93706751236412</v>
-      </c>
+        <v>-35.99428633516111</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>-29.90654464361041</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-36.89682527748234</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-32.95252071152377</v>
-      </c>
+        <v>-35.78991437289754</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>-32.93706751236412</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-36.89496188856322</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-35.41012509674736</v>
-      </c>
+        <v>-36.89682527748234</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-32.95252071152377</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-36.91552471170676</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-35.45243361353371</v>
-      </c>
+        <v>-36.89496188856322</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>-35.41012509674736</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-36.85353228378896</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-37.85035077737093</v>
-      </c>
+        <v>-36.91552471170676</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>-35.45243361353371</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-38.05949368440853</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-37.72313325292873</v>
-      </c>
+        <v>-36.85353228378896</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>-37.85035077737093</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-38.4170526827298</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-38.47873862152405</v>
-      </c>
+        <v>-38.05949368440853</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>-37.72313325292873</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-38.85246584386362</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-38.51549782501697</v>
-      </c>
+        <v>-38.4170526827298</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>-38.47873862152405</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-38.74775621737006</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-39.38298008145635</v>
-      </c>
+        <v>-38.85246584386362</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>-38.51549782501697</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-40.54342092915738</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-39.37073926982433</v>
-      </c>
+        <v>-38.74775621737006</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>-39.38298008145635</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-40.61687390381171</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-39.84750532873977</v>
-      </c>
+        <v>-40.54342092915738</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>-39.37073926982433</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-40.82903586209896</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-39.94082385086742</v>
-      </c>
+        <v>-40.61687390381171</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>-39.84750532873977</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-40.84181479431268</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-40.38172615192371</v>
-      </c>
+        <v>-40.82903586209896</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>-39.94082385086742</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-41.298147120874</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-40.38324805277022</v>
-      </c>
+        <v>-40.84181479431268</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>-40.38172615192371</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-41.44053257200692</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-39.95137439969617</v>
-      </c>
+        <v>-41.298147120874</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>-40.38324805277022</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-41.60885464667232</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-40.17552907446431</v>
-      </c>
+        <v>-41.44053257200692</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>-39.95137439969617</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-41.57228661228181</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-40.03898698429125</v>
-      </c>
+        <v>-41.60885464667232</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>-40.17552907446431</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-42.60805917072855</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-40.0678581544259</v>
-      </c>
+        <v>-41.57228661228181</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>-40.03898698429125</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-42.66978852753922</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-40.29546738715447</v>
-      </c>
+        <v>-42.60805917072855</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>-40.0678581544259</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-43.87559498550424</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-40.26647813714336</v>
-      </c>
+        <v>-42.66978852753922</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>-40.29546738715447</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-43.85152928012064</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-41.22068731926866</v>
-      </c>
+        <v>-43.87559498550424</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>-40.26647813714336</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-43.58744594383925</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-41.29764872332307</v>
-      </c>
+        <v>-43.85152928012064</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>-41.22068731926866</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-43.55365128756563</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-40.77043407822405</v>
-      </c>
+        <v>-43.58744594383925</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>-41.29764872332307</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-43.73303436718177</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-40.64372446061682</v>
-      </c>
+        <v>-43.55365128756563</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>-40.77043407822405</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-43.82665136245589</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-41.36453368305551</v>
-      </c>
+        <v>-43.73303436718177</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>-40.64372446061682</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-42.27786576977137</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-41.35214025236237</v>
-      </c>
+        <v>-43.82665136245589</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>-41.36453368305551</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-42.19065333868247</v>
-      </c>
-      <c r="C97" t="n">
-        <v>-40.04524553563611</v>
-      </c>
+        <v>-42.27786576977137</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>-41.35214025236237</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-41.04450226397656</v>
-      </c>
-      <c r="C98" t="n">
-        <v>-40.19581784816948</v>
-      </c>
+        <v>-42.19065333868247</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>-40.04524553563611</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-40.82253370834844</v>
-      </c>
-      <c r="C99" t="n">
-        <v>-39.24081919118139</v>
-      </c>
+        <v>-41.04450226397656</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>-40.19581784816948</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>-39.03530046551289</v>
-      </c>
+      <c r="B100" t="n">
+        <v>-40.82253370834844</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>-39.24081919118139</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>-39.03530046551289</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
         <v>-37.78668649931432</v>
       </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stride_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-54.48193604654741</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-59.79459360565419</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-54.46958053748303</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-58.9637554254134</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-55.28329598980923</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-58.91797941383851</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-55.33834144465526</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-58.63081973187879</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-54.88365457024975</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-58.51833841541428</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-54.91464626099727</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-58.01492958043124</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-55.34939298067228</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-57.97902914677159</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-55.34669765438515</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-57.45978623091899</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-55.48767822417287</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-57.40265051624776</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-55.4137632186312</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-56.95354409885618</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-55.5637203593971</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-56.93538869084556</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-55.49289730893492</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-56.26271074839408</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-55.55590350777853</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-56.14232495507369</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-55.49206267769313</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-54.99787015229792</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-54.89528786542743</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-54.96678584560434</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-54.91776979941454</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-53.66938326285462</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-54.07705344323634</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-53.6277774997622</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-54.00935533120472</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-51.77804821311233</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-52.37315614187134</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-51.70899200941231</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-52.32656517637027</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-49.52204720053556</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-50.31098477014852</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-49.52356763485653</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-50.26731745046841</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-46.93632416463851</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-47.75599358427239</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-46.92433986256302</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-47.69850076594376</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-44.15713259747429</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-45.26560719545066</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-43.9989704504153</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-45.24056419624247</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-40.61701686830219</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-43.30519828930496</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-40.57555789499336</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-43.23208777994508</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-37.15933402774168</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-40.29638060797863</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-37.09160326922093</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-40.21138286463714</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-33.72715782156559</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-37.39038298149794</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-33.68234838380603</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-37.35958776878942</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-30.75271329042423</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-34.5078638786234</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-30.64690291694504</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-34.46725100649142</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-28.1484259667614</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-31.49993953572814</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-28.08780829344676</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-31.43420299499094</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-25.26177156161619</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-27.76713522622622</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-25.22659177478169</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-27.70494696225497</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-22.54102695021372</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-24.3764945674181</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-22.48084933207289</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-24.35458906560614</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-19.42171353527344</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-21.34905341765691</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-19.3440038115529</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-21.28261927123365</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-15.77302434649172</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-17.67895658639368</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-15.75289495876227</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-17.66441414229633</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-12.24727260438758</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-14.0332678777545</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-12.20215151764899</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-13.93050894974954</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-8.238439900900479</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-7.873851884935887</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-8.20048809917343</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-7.827083316156857</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-4.293482444111654</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-3.406932961563215</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-4.284522184306114</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-3.467301481289921</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.05890037139978001</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.7498654396603553</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.2082572062504887</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.8005683517113932</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.62115080146932</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>5.622716893329768</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.619478052493709</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>5.570003796415481</v>
-      </c>
-      <c r="C55" t="n">
-        <v>8.701721479182767</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>10.88824645028975</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8.728525530551659</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>10.87179797012399</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13.15316699704099</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>16.55127900873692</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13.14800519583882</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>16.53916919629434</v>
-      </c>
-      <c r="C59" t="n">
-        <v>17.37123925167937</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>21.4960061808919</v>
-      </c>
-      <c r="C60" t="n">
-        <v>17.40729856634884</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>21.63999555024038</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21.56564815520063</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>26.87159057571284</v>
-      </c>
-      <c r="C62" t="n">
-        <v>21.58051675189965</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>26.89358121559543</v>
-      </c>
-      <c r="C63" t="n">
-        <v>25.77086983694008</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>31.088345255735</v>
-      </c>
-      <c r="C64" t="n">
-        <v>25.77076973073144</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>31.22633975565273</v>
-      </c>
-      <c r="C65" t="n">
-        <v>29.39085142876612</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>34.68599596285409</v>
-      </c>
-      <c r="C66" t="n">
-        <v>29.42788533203774</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>34.70933373901536</v>
-      </c>
-      <c r="C67" t="n">
-        <v>33.04754217267432</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>37.6437512362411</v>
-      </c>
-      <c r="C68" t="n">
-        <v>33.13390373849482</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>37.56977534428659</v>
-      </c>
-      <c r="C69" t="n">
-        <v>36.27928652474307</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>40.6067048704699</v>
-      </c>
-      <c r="C70" t="n">
-        <v>36.27437267199869</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>40.28932193022995</v>
-      </c>
-      <c r="C71" t="n">
-        <v>38.97955045227025</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>42.48946781072407</v>
-      </c>
-      <c r="C72" t="n">
-        <v>38.89774125022381</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>42.33810911636905</v>
-      </c>
-      <c r="C73" t="n">
-        <v>41.47613110638543</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>43.69516091003498</v>
-      </c>
-      <c r="C74" t="n">
-        <v>41.49795796600503</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>43.60535971712289</v>
-      </c>
-      <c r="C75" t="n">
-        <v>43.58424514213023</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>45.12384627726617</v>
-      </c>
-      <c r="C76" t="n">
-        <v>43.575203529241</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>45.237768236559</v>
-      </c>
-      <c r="C77" t="n">
-        <v>44.58979832409553</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>46.02022621433303</v>
-      </c>
-      <c r="C78" t="n">
-        <v>44.59960485808673</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>45.66988724170086</v>
-      </c>
-      <c r="C79" t="n">
-        <v>45.34942480151241</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>47.24843687726593</v>
-      </c>
-      <c r="C80" t="n">
-        <v>45.30843749163986</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>46.71399003211643</v>
-      </c>
-      <c r="C81" t="n">
-        <v>45.77345961388866</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>48.16333800224322</v>
-      </c>
-      <c r="C82" t="n">
-        <v>45.81016530795571</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>48.16677955562179</v>
-      </c>
-      <c r="C83" t="n">
-        <v>45.81760641622681</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>49.20950988577214</v>
-      </c>
-      <c r="C84" t="n">
-        <v>45.80977254798914</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>49.28599113593284</v>
-      </c>
-      <c r="C85" t="n">
-        <v>45.4608084999746</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>45.91717967229666</v>
-      </c>
-      <c r="C86" t="n">
-        <v>45.58961495876139</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>45.88278354615899</v>
-      </c>
-      <c r="C87" t="n">
-        <v>45.52142569205869</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>46.2324894811908</v>
-      </c>
-      <c r="C88" t="n">
-        <v>45.53048649834933</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>46.24804265697103</v>
-      </c>
-      <c r="C89" t="n">
-        <v>45.56278469793903</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>46.5106410600001</v>
-      </c>
-      <c r="C90" t="n">
-        <v>45.55058742785795</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>46.47876487767078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>45.74104813367084</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>46.44792286455557</v>
-      </c>
-      <c r="C92" t="n">
-        <v>45.78227751529837</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>46.35041390748177</v>
-      </c>
-      <c r="C93" t="n">
-        <v>45.95601646232528</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>46.25369473639552</v>
-      </c>
-      <c r="C94" t="n">
-        <v>45.90800728483034</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>46.31108448693589</v>
-      </c>
-      <c r="C95" t="n">
-        <v>46.0440699829715</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>45.30831871377999</v>
-      </c>
-      <c r="C96" t="n">
-        <v>46.0571469003515</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>45.25952171902613</v>
-      </c>
-      <c r="C97" t="n">
-        <v>45.57486028505783</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>44.66621241678263</v>
-      </c>
-      <c r="C98" t="n">
-        <v>45.70422408712929</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>44.58722505016692</v>
-      </c>
-      <c r="C99" t="n">
-        <v>45.16516921223425</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>45.07620691620782</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>45.49185411201037</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2707,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75.23475892593315</v>
+        <v>73.7105350854205</v>
       </c>
       <c r="C2" t="n">
-        <v>80.34773873139872</v>
+        <v>80.46383431565162</v>
       </c>
     </row>
     <row r="3">
@@ -2718,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>75.39482842799052</v>
+        <v>75.23475892593315</v>
       </c>
       <c r="C3" t="n">
         <v>79.59643084627319</v>
@@ -2729,10 +2769,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>78.80125488094487</v>
+        <v>78.5600488172546</v>
       </c>
       <c r="C4" t="n">
-        <v>79.6856352587303</v>
+        <v>79.60241484674042</v>
       </c>
     </row>
     <row r="5">
@@ -2740,10 +2780,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>79.93669648561749</v>
+        <v>78.80125488094487</v>
       </c>
       <c r="C5" t="n">
-        <v>79.64856098348733</v>
+        <v>79.6856352587303</v>
       </c>
     </row>
     <row r="6">
@@ -2751,10 +2791,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82.49978644745826</v>
+        <v>80.17288720627813</v>
       </c>
       <c r="C6" t="n">
-        <v>79.57711324290436</v>
+        <v>79.56836863738144</v>
       </c>
     </row>
     <row r="7">
@@ -2762,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82.70352022175116</v>
+        <v>82.49978644745826</v>
       </c>
       <c r="C7" t="n">
         <v>79.31561721729955</v>
@@ -2773,10 +2813,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84.43902387209764</v>
+        <v>82.70352022175116</v>
       </c>
       <c r="C8" t="n">
-        <v>79.32024323373085</v>
+        <v>79.30982962120197</v>
       </c>
     </row>
     <row r="9">
@@ -2784,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84.80298725502149</v>
+        <v>84.40954955678866</v>
       </c>
       <c r="C9" t="n">
-        <v>79.30471527117172</v>
+        <v>79.32024323373085</v>
       </c>
     </row>
     <row r="10">
@@ -2795,10 +2835,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84.79555085769844</v>
+        <v>84.80298725502149</v>
       </c>
       <c r="C10" t="n">
-        <v>78.61949995066989</v>
+        <v>78.74014664617202</v>
       </c>
     </row>
     <row r="11">
@@ -2806,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85.74176395619844</v>
+        <v>85.9461503832614</v>
       </c>
       <c r="C11" t="n">
         <v>77.49936247440084</v>
@@ -2817,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.50886438066082</v>
+        <v>85.74176395619844</v>
       </c>
       <c r="C12" t="n">
-        <v>76.29815430487571</v>
+        <v>77.46896717236822</v>
       </c>
     </row>
     <row r="13">
@@ -2831,7 +2871,7 @@
         <v>84.61267879947343</v>
       </c>
       <c r="C13" t="n">
-        <v>76.21286969568929</v>
+        <v>76.29815430487571</v>
       </c>
     </row>
     <row r="14">
@@ -2839,10 +2879,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.54340750195847</v>
+        <v>83.78938331794623</v>
       </c>
       <c r="C14" t="n">
-        <v>73.88272567276961</v>
+        <v>73.92666533004098</v>
       </c>
     </row>
     <row r="15">
@@ -2850,7 +2890,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>80.70782991532822</v>
+        <v>83.54340750195847</v>
       </c>
       <c r="C15" t="n">
         <v>71.27072576532703</v>
@@ -2861,10 +2901,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76.66441348153656</v>
+        <v>80.57269478316317</v>
       </c>
       <c r="C16" t="n">
-        <v>68.00540258663818</v>
+        <v>71.22867996364215</v>
       </c>
     </row>
     <row r="17">
@@ -2872,10 +2912,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>76.53802446261939</v>
+        <v>76.66441348153656</v>
       </c>
       <c r="C17" t="n">
-        <v>67.93669339744908</v>
+        <v>68.00540258663818</v>
       </c>
     </row>
     <row r="18">
@@ -2886,7 +2926,7 @@
         <v>72.06448288646234</v>
       </c>
       <c r="C18" t="n">
-        <v>64.23560585507065</v>
+        <v>64.51703236361492</v>
       </c>
     </row>
     <row r="19">
@@ -2894,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.47325051344745</v>
+        <v>71.48021010749996</v>
       </c>
       <c r="C19" t="n">
         <v>59.60745300815751</v>
@@ -2905,10 +2945,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.42471708458834</v>
+        <v>66.47325051344745</v>
       </c>
       <c r="C20" t="n">
-        <v>55.02696272543304</v>
+        <v>59.58002807064478</v>
       </c>
     </row>
     <row r="21">
@@ -2916,10 +2956,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>61.56209508081106</v>
+        <v>61.6520513354123</v>
       </c>
       <c r="C21" t="n">
-        <v>54.84664605704557</v>
+        <v>55.02696272543304</v>
       </c>
     </row>
     <row r="22">
@@ -2927,10 +2967,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>56.39186881691914</v>
+        <v>61.56209508081106</v>
       </c>
       <c r="C22" t="n">
-        <v>50.36010137676755</v>
+        <v>50.48606249612791</v>
       </c>
     </row>
     <row r="23">
@@ -2949,10 +2989,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.42698507033221</v>
+        <v>50.68167522154128</v>
       </c>
       <c r="C24" t="n">
-        <v>42.61598853225509</v>
+        <v>45.93467119298703</v>
       </c>
     </row>
     <row r="25">
@@ -2960,10 +3000,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>45.39746273268838</v>
+        <v>50.42698507033221</v>
       </c>
       <c r="C25" t="n">
-        <v>42.54945617878231</v>
+        <v>42.61598853225509</v>
       </c>
     </row>
     <row r="26">
@@ -2971,10 +3011,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.42913629209094</v>
+        <v>45.35382123721443</v>
       </c>
       <c r="C26" t="n">
-        <v>38.16624707458953</v>
+        <v>38.23059553739007</v>
       </c>
     </row>
     <row r="27">
@@ -2982,7 +3022,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.30626769658044</v>
+        <v>41.42913629209094</v>
       </c>
       <c r="C27" t="n">
         <v>35.08807097656496</v>
@@ -2996,7 +3036,7 @@
         <v>35.95147730024752</v>
       </c>
       <c r="C28" t="n">
-        <v>31.46710975609981</v>
+        <v>35.01819923672115</v>
       </c>
     </row>
     <row r="29">
@@ -3004,10 +3044,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.55979138739022</v>
+        <v>35.85978682552496</v>
       </c>
       <c r="C29" t="n">
-        <v>31.37490779821634</v>
+        <v>31.46710975609981</v>
       </c>
     </row>
     <row r="30">
@@ -3015,10 +3055,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>31.56222055792044</v>
+        <v>30.55979138739022</v>
       </c>
       <c r="C30" t="n">
-        <v>27.28920371171285</v>
+        <v>27.42110992186626</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3066,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27.15311851924465</v>
+        <v>26.90834055965564</v>
       </c>
       <c r="C31" t="n">
         <v>23.36814395990046</v>
@@ -3037,10 +3077,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22.9469784160531</v>
+        <v>27.15311851924465</v>
       </c>
       <c r="C32" t="n">
-        <v>19.00557025140585</v>
+        <v>23.312374636667</v>
       </c>
     </row>
     <row r="33">
@@ -3051,7 +3091,7 @@
         <v>23.03585000592462</v>
       </c>
       <c r="C33" t="n">
-        <v>19.0366494980133</v>
+        <v>19.00557025140585</v>
       </c>
     </row>
     <row r="34">
@@ -3059,10 +3099,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.81229207497146</v>
+        <v>18.85280001269463</v>
       </c>
       <c r="C34" t="n">
-        <v>15.10108340606866</v>
+        <v>15.08693196075093</v>
       </c>
     </row>
     <row r="35">
@@ -3081,10 +3121,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.172829152397695</v>
+        <v>13.88807812612404</v>
       </c>
       <c r="C36" t="n">
-        <v>4.656612403490793</v>
+        <v>9.597602237334106</v>
       </c>
     </row>
     <row r="37">
@@ -3092,10 +3132,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.231099210582864</v>
+        <v>9.172829152397695</v>
       </c>
       <c r="C37" t="n">
-        <v>4.679903850621487</v>
+        <v>4.656612403490793</v>
       </c>
     </row>
     <row r="38">
@@ -3106,7 +3146,7 @@
         <v>5.581626517021187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2005451410644626</v>
+        <v>0.1942664002191815</v>
       </c>
     </row>
     <row r="39">
@@ -3114,7 +3154,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4107134538045265</v>
+        <v>5.510590030312715</v>
       </c>
       <c r="C39" t="n">
         <v>-4.949058755921274</v>
@@ -3128,7 +3168,7 @@
         <v>0.6487681941685495</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.467494205416822</v>
+        <v>-4.94995947159494</v>
       </c>
     </row>
     <row r="41">
@@ -3136,10 +3176,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.266329038991708</v>
+        <v>-5.260515317553186</v>
       </c>
       <c r="C41" t="n">
-        <v>-9.483871954705275</v>
+        <v>-9.467494205416822</v>
       </c>
     </row>
     <row r="42">
@@ -3147,10 +3187,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-10.76478843108629</v>
+        <v>-5.266329038991708</v>
       </c>
       <c r="C42" t="n">
-        <v>-14.07552799759391</v>
+        <v>-14.08273050971659</v>
       </c>
     </row>
     <row r="43">
@@ -3169,10 +3209,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-15.92399767186052</v>
+        <v>-15.77182562771202</v>
       </c>
       <c r="C44" t="n">
-        <v>-23.3512125928488</v>
+        <v>-19.09497727070666</v>
       </c>
     </row>
     <row r="45">
@@ -3183,7 +3223,7 @@
         <v>-21.66721417765151</v>
       </c>
       <c r="C45" t="n">
-        <v>-23.31141804530699</v>
+        <v>-23.3512125928488</v>
       </c>
     </row>
     <row r="46">
@@ -3191,10 +3231,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-27.3540646578759</v>
+        <v>-21.68108902477125</v>
       </c>
       <c r="C46" t="n">
-        <v>-26.74990586066215</v>
+        <v>-26.68909331150558</v>
       </c>
     </row>
     <row r="47">
@@ -3202,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-27.3746216054655</v>
+        <v>-27.3540646578759</v>
       </c>
       <c r="C47" t="n">
         <v>-30.01298963443089</v>
@@ -3216,7 +3256,7 @@
         <v>-31.14716035479095</v>
       </c>
       <c r="C48" t="n">
-        <v>-32.93706751236412</v>
+        <v>-29.90654464361041</v>
       </c>
     </row>
     <row r="49">
@@ -3224,10 +3264,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-33.86231814082753</v>
+        <v>-31.15646946466666</v>
       </c>
       <c r="C49" t="n">
-        <v>-32.95252071152377</v>
+        <v>-32.93706751236412</v>
       </c>
     </row>
     <row r="50">
@@ -3238,7 +3278,7 @@
         <v>-33.83086278314636</v>
       </c>
       <c r="C50" t="n">
-        <v>-35.45243361353371</v>
+        <v>-35.41012509674736</v>
       </c>
     </row>
     <row r="51">
@@ -3246,7 +3286,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-35.78991437289754</v>
+        <v>-35.99428633516111</v>
       </c>
       <c r="C51" t="n">
         <v>-37.85035077737093</v>
@@ -3257,7 +3297,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-36.89682527748234</v>
+        <v>-35.78991437289754</v>
       </c>
       <c r="C52" t="n">
         <v>-37.72313325292873</v>
@@ -3271,7 +3311,7 @@
         <v>-36.89496188856322</v>
       </c>
       <c r="C53" t="n">
-        <v>-38.51549782501697</v>
+        <v>-38.47873862152405</v>
       </c>
     </row>
     <row r="54">
@@ -3279,7 +3319,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-36.85353228378896</v>
+        <v>-36.91552471170676</v>
       </c>
       <c r="C54" t="n">
         <v>-39.38298008145635</v>
@@ -3301,7 +3341,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-38.85246584386362</v>
+        <v>-38.4170526827298</v>
       </c>
       <c r="C56" t="n">
         <v>-39.94082385086742</v>
@@ -3315,7 +3355,7 @@
         <v>-38.74775621737006</v>
       </c>
       <c r="C57" t="n">
-        <v>-40.38324805277022</v>
+        <v>-40.38172615192371</v>
       </c>
     </row>
     <row r="58">
@@ -3334,7 +3374,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-40.82903586209896</v>
+        <v>-40.61687390381171</v>
       </c>
       <c r="C59" t="n">
         <v>-40.03898698429125</v>
@@ -3356,10 +3396,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-41.44053257200692</v>
+        <v>-41.298147120874</v>
       </c>
       <c r="C61" t="n">
-        <v>-40.26647813714336</v>
+        <v>-40.29546738715447</v>
       </c>
     </row>
     <row r="62">
@@ -3389,7 +3429,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-42.66978852753922</v>
+        <v>-42.60805917072855</v>
       </c>
       <c r="C64" t="n">
         <v>-40.64372446061682</v>
@@ -3403,7 +3443,7 @@
         <v>-43.87559498550424</v>
       </c>
       <c r="C65" t="n">
-        <v>-41.35214025236237</v>
+        <v>-41.36453368305551</v>
       </c>
     </row>
     <row r="66">
@@ -3411,7 +3451,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-43.58744594383925</v>
+        <v>-43.85152928012064</v>
       </c>
       <c r="C66" t="n">
         <v>-40.04524553563611</v>
@@ -3444,10 +3484,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-42.27786576977137</v>
+        <v>-43.82665136245589</v>
       </c>
       <c r="C69" t="n">
-        <v>-37.89248138102366</v>
+        <v>-37.78668649931432</v>
       </c>
     </row>
     <row r="70">
@@ -3466,7 +3506,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-40.82253370834844</v>
+        <v>-41.04450226397656</v>
       </c>
       <c r="C71" t="n">
         <v>-26.71100213687433</v>
@@ -3491,7 +3531,7 @@
         <v>-37.20376233930379</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.87551053410107</v>
+        <v>-13.92745426517023</v>
       </c>
     </row>
     <row r="74">
@@ -3521,7 +3561,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-17.02727885803457</v>
+        <v>-27.31830202897678</v>
       </c>
       <c r="C76" t="n">
         <v>18.43371651397187</v>
@@ -3535,7 +3575,7 @@
         <v>-17.09080836383951</v>
       </c>
       <c r="C77" t="n">
-        <v>36.19362700005279</v>
+        <v>36.10458500593587</v>
       </c>
     </row>
     <row r="78">
@@ -3576,10 +3616,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>35.73696436615099</v>
+        <v>35.69067812878401</v>
       </c>
       <c r="C81" t="n">
-        <v>67.29791746294929</v>
+        <v>67.30481082539927</v>
       </c>
     </row>
     <row r="82">
@@ -3623,7 +3663,7 @@
         <v>81.13184074796692</v>
       </c>
       <c r="C85" t="n">
-        <v>84.64014448606569</v>
+        <v>84.4818637948533</v>
       </c>
     </row>
     <row r="86">
@@ -3631,7 +3671,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>88.54118262788036</v>
+        <v>81.03247282481061</v>
       </c>
       <c r="C86" t="n">
         <v>89.94119137572854</v>
@@ -3667,7 +3707,7 @@
         <v>85.9110804838039</v>
       </c>
       <c r="C89" t="n">
-        <v>86.85077053876122</v>
+        <v>86.91065707739457</v>
       </c>
     </row>
     <row r="90">
@@ -3686,7 +3726,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>85.08618383296799</v>
+        <v>85.11532043013496</v>
       </c>
       <c r="C91" t="n">
         <v>89.30751341464965</v>
@@ -3711,7 +3751,7 @@
         <v>86.89341282967128</v>
       </c>
       <c r="C93" t="n">
-        <v>89.45000820042864</v>
+        <v>89.53371031718268</v>
       </c>
     </row>
     <row r="94">
@@ -3755,7 +3795,7 @@
         <v>86.31797664014415</v>
       </c>
       <c r="C97" t="n">
-        <v>85.58210625604029</v>
+        <v>85.55630321417313</v>
       </c>
     </row>
     <row r="98">
@@ -3799,7 +3839,7 @@
         <v>82.66572203438552</v>
       </c>
       <c r="C101" t="n">
-        <v>80.68083820742351</v>
+        <v>80.69493145080547</v>
       </c>
     </row>
     <row r="102">
@@ -3818,7 +3858,1793 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-53.86943300734902</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-53.86943300734902</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.58722505016692</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.467301481289921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-59.90477833688273</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-59.90477833688273</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45.49185411201037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05890037139978001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-54.48193604654741</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-59.79459360565419</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-54.46958053748303</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-58.9637554254134</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-55.28329598980923</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-58.91797941383851</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-55.33834144465526</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-58.63081973187879</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-54.88365457024975</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-58.51833841541428</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-54.91464626099727</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-58.01492958043124</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-55.34939298067228</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-57.97902914677159</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-55.34669765438515</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-57.45978623091899</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-55.48767822417287</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-57.40265051624776</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-55.4137632186312</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-56.95354409885618</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-55.5637203593971</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-56.93538869084556</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-55.49289730893492</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-56.26271074839408</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-55.55590350777853</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-56.14232495507369</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-55.49206267769313</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-54.99787015229792</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-54.89528786542743</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-54.96678584560434</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-54.91776979941454</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-53.66938326285462</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-54.07705344323634</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-53.6277774997622</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-54.00935533120472</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-51.77804821311233</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-52.37315614187134</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-51.70899200941231</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-52.32656517637027</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-49.52204720053556</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-50.31098477014852</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-49.52356763485653</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-50.26731745046841</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-46.93632416463851</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-47.75599358427239</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-46.92433986256302</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-47.69850076594376</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-44.15713259747429</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-45.26560719545066</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-43.9989704504153</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-45.24056419624247</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-40.61701686830219</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-43.30519828930496</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-40.57555789499336</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-43.23208777994508</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-37.15933402774168</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-40.29638060797863</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-37.09160326922093</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-40.21138286463714</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-33.72715782156559</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-37.39038298149794</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-33.68234838380603</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-37.35958776878942</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-30.75271329042423</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-34.5078638786234</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-30.64690291694504</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-34.46725100649142</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-28.1484259667614</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-31.49993953572814</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-28.08780829344676</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-31.43420299499094</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-25.26177156161619</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-27.76713522622622</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-25.22659177478169</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-27.70494696225497</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-22.54102695021372</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-24.3764945674181</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-22.48084933207289</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-24.35458906560614</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-19.42171353527344</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-21.34905341765691</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-19.3440038115529</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-21.28261927123365</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-15.77302434649172</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-17.67895658639368</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-15.75289495876227</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-17.66441414229633</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-12.24727260438758</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-14.0332678777545</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-12.20215151764899</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-13.93050894974954</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-8.238439900900479</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-7.873851884935887</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-8.20048809917343</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-7.827083316156857</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>-4.293482444111654</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-3.406932961563215</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-4.284522184306114</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-3.467301481289921</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0.05890037139978001</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7498654396603553</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0.2082572062504887</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8005683517113932</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>4.62115080146932</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.622716893329768</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>4.619478052493709</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5.570003796415481</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>8.701721479182767</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10.88824645028975</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>8.728525530551659</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10.87179797012399</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>13.15316699704099</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>16.55127900873692</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>13.14800519583882</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16.53916919629434</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>17.37123925167937</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>21.4960061808919</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>17.40729856634884</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>21.63999555024038</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>21.56564815520063</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>26.87159057571284</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>21.58051675189965</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>26.89358121559543</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>25.77086983694008</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>31.088345255735</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>25.77076973073144</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>31.22633975565273</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>29.39085142876612</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>34.68599596285409</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>29.42788533203774</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>34.70933373901536</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>33.04754217267432</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37.6437512362411</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>33.13390373849482</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>37.56977534428659</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>36.27928652474307</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>40.6067048704699</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>36.27437267199869</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>40.28932193022995</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>38.97955045227025</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>42.48946781072407</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>38.89774125022381</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>42.33810911636905</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>41.47613110638543</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>43.69516091003498</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>41.49795796600503</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>43.60535971712289</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>43.58424514213023</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>45.12384627726617</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>43.575203529241</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45.237768236559</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>44.58979832409553</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>46.02022621433303</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>44.59960485808673</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>45.66988724170086</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>45.34942480151241</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>47.24843687726593</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>45.30843749163986</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>46.71399003211643</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>45.77345961388866</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>48.16333800224322</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>45.81016530795571</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>48.16677955562179</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>45.81760641622681</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>49.20950988577214</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>45.80977254798914</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>49.28599113593284</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>45.4608084999746</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>45.91717967229666</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>45.58961495876139</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>45.88278354615899</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>45.52142569205869</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>46.2324894811908</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>45.53048649834933</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>46.24804265697103</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>45.56278469793903</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>46.5106410600001</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>45.55058742785795</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>46.47876487767078</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>45.74104813367084</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>46.44792286455557</v>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>45.78227751529837</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>46.35041390748177</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>45.95601646232528</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>46.25369473639552</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>45.90800728483034</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>46.31108448693589</v>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>46.0440699829715</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>45.30831871377999</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>46.0571469003515</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>45.25952171902613</v>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>45.57486028505783</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>44.66621241678263</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>45.70422408712929</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>44.58722505016692</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>45.16516921223425</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>45.07620691620782</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>45.49185411201037</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3849,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-54.48193604654741</v>
+        <v>-53.86943300734902</v>
       </c>
       <c r="C2" t="n">
-        <v>-59.79459360565419</v>
+        <v>-59.90477833688273</v>
       </c>
     </row>
     <row r="3">
@@ -3860,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.46958053748303</v>
+        <v>-54.48193604654741</v>
       </c>
       <c r="C3" t="n">
         <v>-58.9637554254134</v>
@@ -3871,10 +5697,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-55.33834144465526</v>
+        <v>-55.28329598980923</v>
       </c>
       <c r="C4" t="n">
-        <v>-58.63081973187879</v>
+        <v>-58.91797941383851</v>
       </c>
     </row>
     <row r="5">
@@ -3882,10 +5708,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-54.88365457024975</v>
+        <v>-55.33834144465526</v>
       </c>
       <c r="C5" t="n">
-        <v>-58.51833841541428</v>
+        <v>-58.63081973187879</v>
       </c>
     </row>
     <row r="6">
@@ -3893,10 +5719,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.34939298067228</v>
+        <v>-54.91464626099727</v>
       </c>
       <c r="C6" t="n">
-        <v>-57.97902914677159</v>
+        <v>-58.01492958043124</v>
       </c>
     </row>
     <row r="7">
@@ -3904,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-55.34669765438515</v>
+        <v>-55.34939298067228</v>
       </c>
       <c r="C7" t="n">
         <v>-57.45978623091899</v>
@@ -3915,10 +5741,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-55.48767822417287</v>
+        <v>-55.34669765438515</v>
       </c>
       <c r="C8" t="n">
-        <v>-56.95354409885618</v>
+        <v>-57.40265051624776</v>
       </c>
     </row>
     <row r="9">
@@ -3926,10 +5752,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-55.5637203593971</v>
+        <v>-55.4137632186312</v>
       </c>
       <c r="C9" t="n">
-        <v>-56.93538869084556</v>
+        <v>-56.95354409885618</v>
       </c>
     </row>
     <row r="10">
@@ -3937,10 +5763,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-55.49289730893492</v>
+        <v>-55.5637203593971</v>
       </c>
       <c r="C10" t="n">
-        <v>-56.14232495507369</v>
+        <v>-56.26271074839408</v>
       </c>
     </row>
     <row r="11">
@@ -3948,7 +5774,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-55.49206267769313</v>
+        <v>-55.55590350777853</v>
       </c>
       <c r="C11" t="n">
         <v>-54.99787015229792</v>
@@ -3959,10 +5785,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-54.89528786542743</v>
+        <v>-55.49206267769313</v>
       </c>
       <c r="C12" t="n">
-        <v>-53.66938326285462</v>
+        <v>-54.96678584560434</v>
       </c>
     </row>
     <row r="13">
@@ -3973,7 +5799,7 @@
         <v>-54.91776979941454</v>
       </c>
       <c r="C13" t="n">
-        <v>-53.6277774997622</v>
+        <v>-53.66938326285462</v>
       </c>
     </row>
     <row r="14">
@@ -3981,10 +5807,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-54.00935533120472</v>
+        <v>-54.07705344323634</v>
       </c>
       <c r="C14" t="n">
-        <v>-51.70899200941231</v>
+        <v>-51.77804821311233</v>
       </c>
     </row>
     <row r="15">
@@ -3992,7 +5818,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-52.37315614187134</v>
+        <v>-54.00935533120472</v>
       </c>
       <c r="C15" t="n">
         <v>-49.52204720053556</v>
@@ -4003,10 +5829,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.31098477014852</v>
+        <v>-52.32656517637027</v>
       </c>
       <c r="C16" t="n">
-        <v>-46.93632416463851</v>
+        <v>-49.52356763485653</v>
       </c>
     </row>
     <row r="17">
@@ -4014,10 +5840,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.26731745046841</v>
+        <v>-50.31098477014852</v>
       </c>
       <c r="C17" t="n">
-        <v>-46.92433986256302</v>
+        <v>-46.93632416463851</v>
       </c>
     </row>
     <row r="18">
@@ -4028,7 +5854,7 @@
         <v>-47.75599358427239</v>
       </c>
       <c r="C18" t="n">
-        <v>-43.9989704504153</v>
+        <v>-44.15713259747429</v>
       </c>
     </row>
     <row r="19">
@@ -4036,7 +5862,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-45.26560719545066</v>
+        <v>-47.69850076594376</v>
       </c>
       <c r="C19" t="n">
         <v>-40.61701686830219</v>
@@ -4047,10 +5873,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-45.24056419624247</v>
+        <v>-45.26560719545066</v>
       </c>
       <c r="C20" t="n">
-        <v>-37.15933402774168</v>
+        <v>-40.57555789499336</v>
       </c>
     </row>
     <row r="21">
@@ -4058,10 +5884,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-43.23208777994508</v>
+        <v>-43.30519828930496</v>
       </c>
       <c r="C21" t="n">
-        <v>-37.09160326922093</v>
+        <v>-37.15933402774168</v>
       </c>
     </row>
     <row r="22">
@@ -4069,10 +5895,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-40.29638060797863</v>
+        <v>-43.23208777994508</v>
       </c>
       <c r="C22" t="n">
-        <v>-33.68234838380603</v>
+        <v>-33.72715782156559</v>
       </c>
     </row>
     <row r="23">
@@ -4091,10 +5917,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-37.35958776878942</v>
+        <v>-37.39038298149794</v>
       </c>
       <c r="C24" t="n">
-        <v>-28.1484259667614</v>
+        <v>-30.64690291694504</v>
       </c>
     </row>
     <row r="25">
@@ -4102,10 +5928,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-34.5078638786234</v>
+        <v>-37.35958776878942</v>
       </c>
       <c r="C25" t="n">
-        <v>-28.08780829344676</v>
+        <v>-28.1484259667614</v>
       </c>
     </row>
     <row r="26">
@@ -4113,10 +5939,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-31.49993953572814</v>
+        <v>-34.46725100649142</v>
       </c>
       <c r="C26" t="n">
-        <v>-25.22659177478169</v>
+        <v>-25.26177156161619</v>
       </c>
     </row>
     <row r="27">
@@ -4124,7 +5950,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-31.43420299499094</v>
+        <v>-31.49993953572814</v>
       </c>
       <c r="C27" t="n">
         <v>-22.54102695021372</v>
@@ -4138,7 +5964,7 @@
         <v>-27.76713522622622</v>
       </c>
       <c r="C28" t="n">
-        <v>-19.42171353527344</v>
+        <v>-22.48084933207289</v>
       </c>
     </row>
     <row r="29">
@@ -4146,10 +5972,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.3764945674181</v>
+        <v>-27.70494696225497</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.3440038115529</v>
+        <v>-19.42171353527344</v>
       </c>
     </row>
     <row r="30">
@@ -4157,10 +5983,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-24.35458906560614</v>
+        <v>-24.3764945674181</v>
       </c>
       <c r="C30" t="n">
-        <v>-15.75289495876227</v>
+        <v>-15.77302434649172</v>
       </c>
     </row>
     <row r="31">
@@ -4168,7 +5994,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-21.28261927123365</v>
+        <v>-21.34905341765691</v>
       </c>
       <c r="C31" t="n">
         <v>-12.24727260438758</v>
@@ -4179,10 +6005,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-17.67895658639368</v>
+        <v>-21.28261927123365</v>
       </c>
       <c r="C32" t="n">
-        <v>-8.238439900900479</v>
+        <v>-12.20215151764899</v>
       </c>
     </row>
     <row r="33">
@@ -4193,7 +6019,7 @@
         <v>-17.66441414229633</v>
       </c>
       <c r="C33" t="n">
-        <v>-8.20048809917343</v>
+        <v>-8.238439900900479</v>
       </c>
     </row>
     <row r="34">
@@ -4201,10 +6027,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-13.93050894974954</v>
+        <v>-14.0332678777545</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.284522184306114</v>
+        <v>-4.293482444111654</v>
       </c>
     </row>
     <row r="35">
@@ -4223,10 +6049,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.406932961563215</v>
+        <v>-7.827083316156857</v>
       </c>
       <c r="C36" t="n">
-        <v>4.62115080146932</v>
+        <v>0.2082572062504887</v>
       </c>
     </row>
     <row r="37">
@@ -4234,10 +6060,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-3.467301481289921</v>
+        <v>-3.406932961563215</v>
       </c>
       <c r="C37" t="n">
-        <v>4.619478052493709</v>
+        <v>4.62115080146932</v>
       </c>
     </row>
     <row r="38">
@@ -4248,7 +6074,7 @@
         <v>0.7498654396603553</v>
       </c>
       <c r="C38" t="n">
-        <v>8.728525530551659</v>
+        <v>8.701721479182767</v>
       </c>
     </row>
     <row r="39">
@@ -4256,7 +6082,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.622716893329768</v>
+        <v>0.8005683517113932</v>
       </c>
       <c r="C39" t="n">
         <v>13.15316699704099</v>
@@ -4270,7 +6096,7 @@
         <v>5.570003796415481</v>
       </c>
       <c r="C40" t="n">
-        <v>17.37123925167937</v>
+        <v>13.14800519583882</v>
       </c>
     </row>
     <row r="41">
@@ -4278,10 +6104,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.87179797012399</v>
+        <v>10.88824645028975</v>
       </c>
       <c r="C41" t="n">
-        <v>17.40729856634884</v>
+        <v>17.37123925167937</v>
       </c>
     </row>
     <row r="42">
@@ -4289,10 +6115,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16.55127900873692</v>
+        <v>10.87179797012399</v>
       </c>
       <c r="C42" t="n">
-        <v>21.58051675189965</v>
+        <v>21.56564815520063</v>
       </c>
     </row>
     <row r="43">
@@ -4311,10 +6137,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21.63999555024038</v>
+        <v>21.4960061808919</v>
       </c>
       <c r="C44" t="n">
-        <v>29.39085142876612</v>
+        <v>25.77076973073144</v>
       </c>
     </row>
     <row r="45">
@@ -4325,7 +6151,7 @@
         <v>26.87159057571284</v>
       </c>
       <c r="C45" t="n">
-        <v>29.42788533203774</v>
+        <v>29.39085142876612</v>
       </c>
     </row>
     <row r="46">
@@ -4333,10 +6159,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.088345255735</v>
+        <v>26.89358121559543</v>
       </c>
       <c r="C46" t="n">
-        <v>33.13390373849482</v>
+        <v>33.04754217267432</v>
       </c>
     </row>
     <row r="47">
@@ -4344,7 +6170,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>31.22633975565273</v>
+        <v>31.088345255735</v>
       </c>
       <c r="C47" t="n">
         <v>36.27928652474307</v>
@@ -4358,7 +6184,7 @@
         <v>34.68599596285409</v>
       </c>
       <c r="C48" t="n">
-        <v>38.97955045227025</v>
+        <v>36.27437267199869</v>
       </c>
     </row>
     <row r="49">
@@ -4366,10 +6192,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>37.6437512362411</v>
+        <v>34.70933373901536</v>
       </c>
       <c r="C49" t="n">
-        <v>38.89774125022381</v>
+        <v>38.97955045227025</v>
       </c>
     </row>
     <row r="50">
@@ -4380,7 +6206,7 @@
         <v>37.56977534428659</v>
       </c>
       <c r="C50" t="n">
-        <v>41.49795796600503</v>
+        <v>41.47613110638543</v>
       </c>
     </row>
     <row r="51">
@@ -4388,7 +6214,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.28932193022995</v>
+        <v>40.6067048704699</v>
       </c>
       <c r="C51" t="n">
         <v>43.58424514213023</v>
@@ -4399,7 +6225,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42.48946781072407</v>
+        <v>40.28932193022995</v>
       </c>
       <c r="C52" t="n">
         <v>43.575203529241</v>
@@ -4413,7 +6239,7 @@
         <v>42.33810911636905</v>
       </c>
       <c r="C53" t="n">
-        <v>44.59960485808673</v>
+        <v>44.58979832409553</v>
       </c>
     </row>
     <row r="54">
@@ -4421,7 +6247,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>43.60535971712289</v>
+        <v>43.69516091003498</v>
       </c>
       <c r="C54" t="n">
         <v>45.34942480151241</v>
@@ -4443,7 +6269,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>46.02022621433303</v>
+        <v>45.237768236559</v>
       </c>
       <c r="C56" t="n">
         <v>45.81016530795571</v>
@@ -4457,7 +6283,7 @@
         <v>45.66988724170086</v>
       </c>
       <c r="C57" t="n">
-        <v>45.80977254798914</v>
+        <v>45.81760641622681</v>
       </c>
     </row>
     <row r="58">
@@ -4476,7 +6302,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>48.16333800224322</v>
+        <v>46.71399003211643</v>
       </c>
       <c r="C59" t="n">
         <v>45.52142569205869</v>
@@ -4498,10 +6324,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>49.28599113593284</v>
+        <v>49.20950988577214</v>
       </c>
       <c r="C61" t="n">
-        <v>45.55058742785795</v>
+        <v>45.56278469793903</v>
       </c>
     </row>
     <row r="62">
@@ -4531,7 +6357,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46.24804265697103</v>
+        <v>46.2324894811908</v>
       </c>
       <c r="C64" t="n">
         <v>45.90800728483034</v>
@@ -4545,7 +6371,7 @@
         <v>46.5106410600001</v>
       </c>
       <c r="C65" t="n">
-        <v>46.0571469003515</v>
+        <v>46.0440699829715</v>
       </c>
     </row>
     <row r="66">
@@ -4553,7 +6379,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>46.44792286455557</v>
+        <v>46.47876487767078</v>
       </c>
       <c r="C66" t="n">
         <v>45.57486028505783</v>
@@ -4586,10 +6412,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45.30831871377999</v>
+        <v>46.31108448693589</v>
       </c>
       <c r="C69" t="n">
-        <v>45.52446153230642</v>
+        <v>45.49185411201037</v>
       </c>
     </row>
     <row r="70">
@@ -4608,7 +6434,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44.58722505016692</v>
+        <v>44.66621241678263</v>
       </c>
       <c r="C71" t="n">
         <v>44.34071439813713</v>
@@ -4633,7 +6459,7 @@
         <v>43.27710397421786</v>
       </c>
       <c r="C73" t="n">
-        <v>40.90716053073562</v>
+        <v>41.00255631676333</v>
       </c>
     </row>
     <row r="74">
@@ -4663,7 +6489,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>38.8840215542786</v>
+        <v>40.9639535396763</v>
       </c>
       <c r="C76" t="n">
         <v>27.64978111986279</v>
@@ -4677,7 +6503,7 @@
         <v>38.99433130938113</v>
       </c>
       <c r="C77" t="n">
-        <v>24.13789906499802</v>
+        <v>24.35368947095297</v>
       </c>
     </row>
     <row r="78">
@@ -4718,10 +6544,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.70636179704061</v>
+        <v>15.87066070676348</v>
       </c>
       <c r="C81" t="n">
-        <v>-10.34440012691444</v>
+        <v>-10.36529150664878</v>
       </c>
     </row>
     <row r="82">
@@ -4765,7 +6591,7 @@
         <v>-18.18857146104726</v>
       </c>
       <c r="C85" t="n">
-        <v>-31.46721318162472</v>
+        <v>-31.51215711944652</v>
       </c>
     </row>
     <row r="86">
@@ -4773,7 +6599,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-24.51397521452882</v>
+        <v>-18.22536557753105</v>
       </c>
       <c r="C86" t="n">
         <v>-39.48601827988308</v>
@@ -4809,7 +6635,7 @@
         <v>-44.53935955044323</v>
       </c>
       <c r="C89" t="n">
-        <v>-49.97479575868309</v>
+        <v>-49.87010878660979</v>
       </c>
     </row>
     <row r="90">
@@ -4828,7 +6654,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-49.94388769270987</v>
+        <v>-50.02307339482467</v>
       </c>
       <c r="C91" t="n">
         <v>-54.43425969486631</v>
@@ -4853,7 +6679,7 @@
         <v>-53.71600452848065</v>
       </c>
       <c r="C93" t="n">
-        <v>-55.79139646105586</v>
+        <v>-55.81532299996282</v>
       </c>
     </row>
     <row r="94">
@@ -4897,7 +6723,7 @@
         <v>-59.51058404961803</v>
       </c>
       <c r="C97" t="n">
-        <v>-59.5376622735002</v>
+        <v>-59.56080895616089</v>
       </c>
     </row>
     <row r="98">
@@ -4941,7 +6767,7 @@
         <v>-61.6788097732949</v>
       </c>
       <c r="C101" t="n">
-        <v>-59.00334917099316</v>
+        <v>-58.98100055621005</v>
       </c>
     </row>
     <row r="102">
